--- a/utils/data/Test BIMPL 2/Statistics/statistics 2.xlsx
+++ b/utils/data/Test BIMPL 2/Statistics/statistics 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4a41d9fa7434161/OneDrive-Documenten/GitHub/LoLa/utils/data/Test BIMPL 2/Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="11_F25DC773A252ABDACC104883611F7F1E5BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1200E0-D8C2-4C60-999E-7348D29439A7}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="11_F25DC773A252ABDACC104883611F7F1E5BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AAD5FF2-3FB7-46CE-8DD4-D5BDBF64098B}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2916" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ggc-formulas" sheetId="9" r:id="rId1"/>
@@ -8552,7 +8552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80DDA3D-0FF3-40E8-A1A8-E333F7D6B105}">
   <dimension ref="B2:U59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -12398,7 +12398,7 @@
   <dimension ref="B2:U59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16242,8 +16242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CBE981-7AC3-424B-9A47-CC970D9A41D0}">
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
